--- a/model/Auswertung/Infografiken/Ergebnis_GPT/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_GPT/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1544</v>
+        <v>0.1119</v>
       </c>
       <c r="F2" t="n">
         <v>39</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1636</v>
+        <v>0.1518</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2143</v>
+        <v>0.0109</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
         <v>263</v>
       </c>
       <c r="C5" t="n">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
         <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5793</v>
+        <v>0.5624</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1884</v>
+        <v>0.1772</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1867</v>
+        <v>0.1408</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0357</v>
+        <v>0.0128</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C9" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3967</v>
+        <v>0.2158</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
